--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="20055" windowHeight="7950" tabRatio="401"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="71">
   <si>
     <t>LoginComponent</t>
   </si>
@@ -43,13 +43,199 @@
   </si>
   <si>
     <t>Ticket</t>
+  </si>
+  <si>
+    <t>Route: /login</t>
+  </si>
+  <si>
+    <t>UserComponent</t>
+  </si>
+  <si>
+    <t>Route: /user</t>
+  </si>
+  <si>
+    <t>ShowAllTickets</t>
+  </si>
+  <si>
+    <t>Route: /showAllTickets</t>
+  </si>
+  <si>
+    <t>Route: /raiseTicket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task: </t>
+  </si>
+  <si>
+    <t>1. Take input ( userName, Password) and make RestCall</t>
+  </si>
+  <si>
+    <t>2. Get the response and convert the observable to User type</t>
+  </si>
+  <si>
+    <t>3. Route to it's respective page based on the role!</t>
+  </si>
+  <si>
+    <t>Child Routes:</t>
+  </si>
+  <si>
+    <t>1. ShowAllTickets</t>
+  </si>
+  <si>
+    <t>2. RaiseTicket</t>
+  </si>
+  <si>
+    <t>3. Logout</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>2. redirect to login page</t>
+  </si>
+  <si>
+    <t>RaiseTicketComponent</t>
+  </si>
+  <si>
+    <t>Route: /logout</t>
+  </si>
+  <si>
+    <t>Task:</t>
+  </si>
+  <si>
+    <t>1. show relevant form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. do relevant client side validations, </t>
+  </si>
+  <si>
+    <t>3. onsubmit: submit the ticket via rest call</t>
+  </si>
+  <si>
+    <t>4. display status based on the response!</t>
+  </si>
+  <si>
+    <t>1. display all the tickets, by making rest call</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        id:number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        name:string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        code:string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        user_name:string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        password:string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        role:Role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        service_engineer_id:number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        user:User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        departmant:Department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        total_tickets_worked_on:number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        current_ticket_start_date:Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        current_high_priority_ticket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        priority:Priority</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        category:Department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        requested_by:User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        status:Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        assigned_to:User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        start_date:Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        requested_end_date:Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        closed_date:Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        message:string</t>
+  </si>
+  <si>
+    <t>ServiceEngineerComponent</t>
+  </si>
+  <si>
+    <t>Route: /serviceEngineer</t>
+  </si>
+  <si>
+    <t>2. AverageTimeTakenPerEngineer</t>
+  </si>
+  <si>
+    <t>3. AverageTimeTakenPerSeverity</t>
+  </si>
+  <si>
+    <t>4. AgingOfOpenTickets</t>
+  </si>
+  <si>
+    <t>5. Logout</t>
+  </si>
+  <si>
+    <t>2. format it accordingly</t>
+  </si>
+  <si>
+    <t>AverageTimeTakenPerSeverity</t>
+  </si>
+  <si>
+    <t>AgingOfOpenTickets</t>
+  </si>
+  <si>
+    <t>AverageTimeTakenPerEngineer</t>
+  </si>
+  <si>
+    <t>1. make rest call and show data</t>
+  </si>
+  <si>
+    <t>Route: /attpengineer | /attpseverity | /aootickets</t>
+  </si>
+  <si>
+    <t>2. do relevant formatting</t>
+  </si>
+  <si>
+    <t>1. Remove all the session data</t>
+  </si>
+  <si>
+    <t>3. if he closed a ticket: make rest call accordingly</t>
+  </si>
+  <si>
+    <t>4. update the List</t>
+  </si>
+  <si>
+    <t>5. If he changes priority: make rest call accordingly</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +245,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -86,9 +280,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,60 +585,381 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:B21"/>
+  <dimension ref="A4:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="68.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:2">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="G11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="G12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="D18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+      <c r="G20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+      <c r="D21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="33" spans="1:7">
+      <c r="A33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="G40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="3" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learnings\Angular\STRS-Angular\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2B9BFE-C511-4C1A-A7BE-CC506BC00556}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="20055" windowHeight="7950" tabRatio="401"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="20055" windowHeight="7950" tabRatio="401" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="PlanInUbuntu_Oct2nd_4_57Pm" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="90">
   <si>
     <t>LoginComponent</t>
   </si>
@@ -229,13 +234,70 @@
   </si>
   <si>
     <t>5. If he changes priority: make rest call accordingly</t>
+  </si>
+  <si>
+    <t>LoginService</t>
+  </si>
+  <si>
+    <t>UserService</t>
+  </si>
+  <si>
+    <t>ServiceEngineerService</t>
+  </si>
+  <si>
+    <t>Don’t go with *ngIf : “can activate” interface (active routing)</t>
+  </si>
+  <si>
+    <t>Do at the END [ 2. do relevant client side validations, ]</t>
+  </si>
+  <si>
+    <t>4. display status based on the response! { show all tickets }</t>
+  </si>
+  <si>
+    <t>LocalStorage | LocalSession in Angular</t>
+  </si>
+  <si>
+    <t>How to implement sessions in Angular</t>
+  </si>
+  <si>
+    <t>app-routing.module.ts</t>
+  </si>
+  <si>
+    <t>[ {path: ‘login’, component: LoginComponent },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{path: ‘user’, </t>
+  </si>
+  <si>
+    <t>changePrioritry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{path: ‘serviceEngineer’, </t>
+  </si>
+  <si>
+    <t>Route: /changePriority</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{path: ‘’, </t>
+  </si>
+  <si>
+    <t>{path: ‘**’, PageNotFoundComponent}</t>
+  </si>
+  <si>
+    <t>1. on click: priority make a rest call and change the priority</t>
+  </si>
+  <si>
+    <t>2. make a rest call and get all the tickets and Display them</t>
+  </si>
+  <si>
+    <t>3. Update the Tickets View with the current changes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,6 +321,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -277,10 +368,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -291,12 +383,32 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -343,7 +455,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -375,9 +487,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -409,6 +539,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -584,14 +732,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.85546875" bestFit="1" customWidth="1"/>
@@ -599,7 +747,7 @@
     <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -610,7 +758,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -621,7 +769,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -632,7 +780,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -643,7 +791,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -654,7 +802,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -665,20 +813,20 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
@@ -686,7 +834,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>13</v>
       </c>
@@ -694,12 +842,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -710,7 +858,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>3</v>
       </c>
@@ -721,7 +869,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
@@ -729,7 +877,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -740,7 +888,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>33</v>
       </c>
@@ -751,7 +899,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>34</v>
       </c>
@@ -759,7 +907,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>35</v>
       </c>
@@ -770,7 +918,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>7</v>
       </c>
@@ -778,7 +926,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>33</v>
       </c>
@@ -786,7 +934,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>34</v>
       </c>
@@ -794,7 +942,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>36</v>
       </c>
@@ -805,7 +953,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>37</v>
       </c>
@@ -813,7 +961,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>38</v>
       </c>
@@ -824,7 +972,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>26</v>
       </c>
@@ -832,12 +980,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>39</v>
       </c>
@@ -845,7 +993,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>40</v>
       </c>
@@ -856,7 +1004,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>41</v>
       </c>
@@ -867,7 +1015,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>42</v>
       </c>
@@ -875,17 +1023,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>45</v>
       </c>
@@ -893,17 +1041,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G40" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>33</v>
       </c>
@@ -911,7 +1059,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>46</v>
       </c>
@@ -919,7 +1067,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>47</v>
       </c>
@@ -927,37 +1075,37 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>53</v>
       </c>
@@ -969,25 +1117,679 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:G62"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>